--- a/ASP.NET CORE/HRMNS/HRMS/wwwroot/templates/EHS_KeHoachPCCC.xlsx
+++ b/ASP.NET CORE/HRMNS/HRMS/wwwroot/templates/EHS_KeHoachPCCC.xlsx
@@ -108,10 +108,6 @@
 1개월/ 번</t>
   </si>
   <si>
-    <t>các tháng
-매월</t>
-  </si>
-  <si>
     <t>Tập huấn PCCC
 소방 훈련</t>
   </si>
@@ -186,6 +182,20 @@
     <t>2023-07-01,
 2024-01-01</t>
   </si>
+  <si>
+    <t>2023-01-01,
+2023-02-01,
+2023-03-01,
+2023-04-01,
+2023-05-01,
+2023-06-01,
+2023-07-01,
+2023-08-01,
+2023-09-01,
+2023-10-01,
+2023-11-01,
+2023-12-01</t>
+  </si>
 </sst>
 </file>
 
@@ -193,7 +203,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -376,10 +386,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -665,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -737,7 +747,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="114" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="180" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -751,7 +761,7 @@
         <v>24</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="F2" s="14">
         <v>2023</v>
@@ -802,10 +812,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>2</v>
@@ -820,7 +830,7 @@
         <v>5</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I3" s="8">
         <v>0</v>
@@ -864,10 +874,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>2</v>
@@ -924,10 +934,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>2</v>
@@ -984,10 +994,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>2</v>
@@ -1002,7 +1012,7 @@
         <v>5</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I6" s="8">
         <v>0</v>
@@ -1046,10 +1056,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>2</v>
@@ -1061,10 +1071,10 @@
         <v>2023</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I7" s="16">
         <v>9000000</v>
@@ -1108,16 +1118,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="E8" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F8" s="14">
         <v>2023</v>
